--- a/data/trans_dic/P4_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P4_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:W18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -532,12 +533,18 @@
     <col width="14" customWidth="1" min="15" max="15"/>
     <col width="14" customWidth="1" min="16" max="16"/>
     <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que reside en vivienda cuya superficie es menor o igual que 75m2</t>
+          <t>Población que reside en vivienda cuya superficie es menor o igual que 75m2 (tasa de respuesta: 93,2%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -550,24 +557,30 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
       <c r="O1" s="3" t="n"/>
       <c r="P1" s="3" t="n"/>
-      <c r="Q1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -594,57 +607,87 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="O2" s="3" t="inlineStr">
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="P2" s="3" t="inlineStr">
+      <c r="T2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="Q2" s="3" t="inlineStr">
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -666,6 +709,12 @@
       <c r="O3" s="2" t="n"/>
       <c r="P3" s="2" t="n"/>
       <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -685,72 +734,102 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>24,05%</t>
+          <t>23,16%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>21,63%</t>
+          <t>21,11%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>23,33%</t>
+          <t>23,64%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>42,24%</t>
+          <t>22,8%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
+          <t>42,25%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>44,89%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>27,8%</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>22,59%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>35,79%</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>28,64%</t>
+          <t>21,81%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>45,09%</t>
+          <t>36,15%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
+          <t>29,02%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>36,22%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>45,08%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>51,15%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
           <t>25,07%</t>
         </is>
       </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>23,39%</t>
-        </is>
-      </c>
-      <c r="O4" s="2" t="inlineStr">
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>22,55%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>28,33%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>26,13%</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
         <is>
           <t>28,43%</t>
         </is>
       </c>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>25,77%</t>
-        </is>
-      </c>
-      <c r="Q4" s="2" t="inlineStr">
+      <c r="V4" s="2" t="inlineStr">
         <is>
           <t>43,64%</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>47,36%</t>
         </is>
       </c>
     </row>
@@ -763,77 +842,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>16,35; 31,28</t>
+          <t>15,96; 30,89</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>17,06; 34,11</t>
+          <t>15,53; 31,3</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>13,79; 31,37</t>
+          <t>13,51; 30,03</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>14,24; 33,71</t>
+          <t>15,25; 33,56</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>30,01; 54,84</t>
+          <t>14,54; 32,81</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>19,12; 36,72</t>
+          <t>29,59; 55,15</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>15,16; 32,26</t>
+          <t>32,66; 56,2</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>27,37; 45,0</t>
+          <t>19,9; 36,26</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>20,94; 36,82</t>
+          <t>14,74; 30,73</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>33,2; 56,49</t>
+          <t>27,26; 44,97</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>19,97; 31,39</t>
+          <t>21,64; 37,68</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>17,34; 29,4</t>
+          <t>26,18; 47,96</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>22,35; 35,01</t>
+          <t>32,77; 57,31</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>19,84; 32,57</t>
+          <t>39,55; 64,09</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>34,77; 52,26</t>
+          <t>19,82; 30,34</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>17,06; 28,34</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>22,58; 34,65</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>20,19; 33,04</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>21,9; 36,15</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>34,81; 53,34</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>38,11; 55,92</t>
         </is>
       </c>
     </row>
@@ -855,72 +964,102 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>34,01%</t>
+          <t>34,1%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>33,15%</t>
+          <t>33,88%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>36,75%</t>
+          <t>37,11%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>39,7%</t>
+          <t>20,1%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>31,83%</t>
+          <t>39,69%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>35,87%</t>
+          <t>41,45%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>33,12%</t>
+          <t>31,84%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>32,05%</t>
+          <t>35,57%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
+          <t>33,32%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>32,39%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>30,3%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
           <t>39,93%</t>
         </is>
       </c>
-      <c r="M6" s="2" t="inlineStr">
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>46,34%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
         <is>
           <t>34,18%</t>
         </is>
       </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>34,88%</t>
-        </is>
-      </c>
-      <c r="O6" s="2" t="inlineStr">
-        <is>
-          <t>33,14%</t>
-        </is>
-      </c>
-      <c r="P6" s="2" t="inlineStr">
-        <is>
-          <t>34,65%</t>
-        </is>
-      </c>
-      <c r="Q6" s="2" t="inlineStr">
-        <is>
-          <t>39,81%</t>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>34,77%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>33,62%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>35,01%</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>24,42%</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>39,8%</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>43,7%</t>
         </is>
       </c>
     </row>
@@ -933,77 +1072,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>26,32; 46,12</t>
+          <t>27,58; 46,68</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>24,94; 46,81</t>
+          <t>25,18; 48,04</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>25,31; 42,95</t>
+          <t>25,13; 44,21</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>27,99; 48,55</t>
+          <t>27,48; 49,79</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>28,63; 50,72</t>
+          <t>12,63; 30,5</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>24,97; 38,92</t>
+          <t>29,06; 50,34</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>27,29; 44,36</t>
+          <t>29,11; 54,46</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>26,71; 40,48</t>
+          <t>25,22; 40,18</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>25,26; 38,65</t>
+          <t>28,14; 44,72</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>30,49; 49,14</t>
+          <t>26,91; 40,53</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>28,37; 41,61</t>
+          <t>26,34; 39,79</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>28,59; 42,32</t>
+          <t>22,1; 40,26</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>28,1; 39,6</t>
+          <t>30,78; 49,24</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>29,02; 42,42</t>
+          <t>37,39; 55,88</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>32,89; 47,16</t>
+          <t>28,01; 40,72</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>28,17; 42,95</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>28,74; 41,33</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>29,25; 43,01</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>18,01; 30,65</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>32,84; 47,68</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>36,2; 51,52</t>
         </is>
       </c>
     </row>
@@ -1025,72 +1194,102 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>21,7%</t>
+          <t>21,34%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>19,49%</t>
+          <t>19,59%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>21,11%</t>
+          <t>21,3%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>21,37%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>34,72%</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>44,04%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
         <is>
           <t>23,95%</t>
         </is>
       </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>22,66%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>24,42%</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>24,15%</t>
+          <t>22,67%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
+          <t>24,05%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>23,58%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>24,13%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
           <t>36,32%</t>
         </is>
       </c>
-      <c r="M8" s="2" t="inlineStr">
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>45,19%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
         <is>
           <t>22,68%</t>
         </is>
       </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>22,17%</t>
-        </is>
-      </c>
-      <c r="O8" s="2" t="inlineStr">
-        <is>
-          <t>21,95%</t>
-        </is>
-      </c>
-      <c r="P8" s="2" t="inlineStr">
-        <is>
-          <t>22,63%</t>
-        </is>
-      </c>
-      <c r="Q8" s="2" t="inlineStr">
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>22,0%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>21,82%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>22,44%</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>22,77%</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
         <is>
           <t>35,44%</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>44,58%</t>
         </is>
       </c>
     </row>
@@ -1103,77 +1302,107 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>16,09; 28,15</t>
+          <t>16,02; 28,51</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>14,96; 32,38</t>
+          <t>14,96; 30,18</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>15,19; 25,56</t>
+          <t>14,74; 25,06</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>15,78; 28,35</t>
+          <t>16,11; 28,58</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>28,19; 42,4</t>
+          <t>16,24; 27,47</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>19,34; 29,3</t>
+          <t>28,37; 41,67</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>17,81; 28,39</t>
+          <t>36,67; 51,57</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>20,28; 29,17</t>
+          <t>19,47; 28,98</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>19,9; 28,79</t>
+          <t>18,07; 28,08</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>29,84; 43,29</t>
+          <t>20,05; 29,5</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>19,32; 26,98</t>
+          <t>19,5; 28,1</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>18,25; 29,23</t>
+          <t>18,55; 29,64</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>18,54; 25,56</t>
+          <t>29,82; 43,42</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>18,8; 26,67</t>
+          <t>38,15; 52,3</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>30,71; 40,24</t>
+          <t>19,05; 26,96</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>18,05; 26,95</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>18,5; 25,52</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>18,88; 26,91</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>18,78; 26,75</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>30,92; 40,8</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>38,9; 49,8</t>
         </is>
       </c>
     </row>
@@ -1190,77 +1419,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>22,89%</t>
+          <t>22,88%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>25,3%</t>
+          <t>25,24%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>21,27%</t>
+          <t>20,9%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>24,05%</t>
+          <t>23,98%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>40,3%</t>
+          <t>24,32%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>20,72%</t>
+          <t>40,31%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>21,1%</t>
+          <t>38,41%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>23,09%</t>
+          <t>20,71%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>21,52%</t>
+          <t>21,08%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
+          <t>23,1%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>21,59%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>21,93%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
           <t>46,5%</t>
         </is>
       </c>
-      <c r="M10" s="2" t="inlineStr">
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>49,52%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
         <is>
           <t>21,79%</t>
         </is>
       </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>23,16%</t>
-        </is>
-      </c>
-      <c r="O10" s="2" t="inlineStr">
-        <is>
-          <t>22,19%</t>
-        </is>
-      </c>
-      <c r="P10" s="2" t="inlineStr">
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>23,14%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>21,99%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
         <is>
           <t>22,79%</t>
         </is>
       </c>
-      <c r="Q10" s="2" t="inlineStr">
-        <is>
-          <t>43,22%</t>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>23,23%</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>43,23%</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>43,47%</t>
         </is>
       </c>
     </row>
@@ -1273,77 +1532,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>17,83; 27,53</t>
+          <t>18,15; 28,39</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>20,18; 31,69</t>
+          <t>20,1; 30,88</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>16,98; 26,66</t>
+          <t>16,65; 26,31</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>19,29; 29,93</t>
+          <t>19,11; 29,83</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>33,18; 48,43</t>
+          <t>18,88; 32,98</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>16,15; 25,11</t>
+          <t>32,55; 48,68</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>16,29; 26,2</t>
+          <t>31,44; 45,91</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>18,61; 28,09</t>
+          <t>16,69; 25,6</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>17,2; 25,95</t>
+          <t>16,51; 26,7</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>39,53; 54,03</t>
+          <t>19,06; 28,15</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>18,66; 25,2</t>
+          <t>17,24; 26,28</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>19,95; 27,39</t>
+          <t>17,18; 27,47</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>18,96; 25,79</t>
+          <t>40,0; 53,93</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>19,48; 26,58</t>
+          <t>42,78; 56,82</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>38,3; 48,91</t>
+          <t>18,78; 25,38</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>19,4; 26,97</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>18,71; 25,38</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>19,53; 26,51</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>19,49; 28,43</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>38,35; 48,32</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>38,5; 48,71</t>
         </is>
       </c>
     </row>
@@ -1365,72 +1654,102 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>20,46%</t>
+          <t>20,66%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>16,31%</t>
+          <t>16,97%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>17,81%</t>
+          <t>18,07%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>39,8%</t>
+          <t>22,13%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
+          <t>39,79%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>38,06%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
           <t>24,86%</t>
         </is>
       </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>24,8%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>23,88%</t>
-        </is>
-      </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>24,02%</t>
+          <t>24,47%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
+          <t>23,86%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>24,03%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>20,36%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
           <t>41,39%</t>
         </is>
       </c>
-      <c r="M12" s="2" t="inlineStr">
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>37,15%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
         <is>
           <t>21,44%</t>
         </is>
       </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>22,51%</t>
-        </is>
-      </c>
-      <c r="O12" s="2" t="inlineStr">
-        <is>
-          <t>19,9%</t>
-        </is>
-      </c>
-      <c r="P12" s="2" t="inlineStr">
-        <is>
-          <t>20,81%</t>
-        </is>
-      </c>
-      <c r="Q12" s="2" t="inlineStr">
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>22,45%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>20,22%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>20,96%</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>21,31%</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
         <is>
           <t>40,58%</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>37,64%</t>
         </is>
       </c>
     </row>
@@ -1443,77 +1762,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>13,65; 24,74</t>
+          <t>13,66; 25,09</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>14,87; 28,14</t>
+          <t>15,42; 28,59</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>11,69; 23,31</t>
+          <t>12,7; 23,89</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>12,84; 24,14</t>
+          <t>13,16; 25,44</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>32,67; 48,31</t>
+          <t>16,0; 29,03</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>19,01; 31,79</t>
+          <t>31,24; 47,73</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>18,4; 31,73</t>
+          <t>30,7; 45,27</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>18,54; 29,38</t>
+          <t>19,26; 31,19</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>18,53; 29,8</t>
+          <t>17,95; 31,57</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>34,55; 49,07</t>
+          <t>18,51; 29,75</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>17,48; 25,95</t>
+          <t>19,0; 30,23</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>18,36; 27,69</t>
+          <t>14,57; 28,65</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>16,29; 24,2</t>
+          <t>34,86; 48,79</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>17,2; 25,39</t>
+          <t>29,1; 44,68</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>35,16; 45,88</t>
+          <t>17,74; 25,63</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>18,73; 27,56</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>16,86; 24,92</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>17,25; 26,17</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>17,3; 26,42</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>35,55; 46,11</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>32,48; 42,82</t>
         </is>
       </c>
     </row>
@@ -1530,77 +1879,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>17,77%</t>
+          <t>17,78%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>19,17%</t>
+          <t>17,98%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>16,71%</t>
+          <t>16,68%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>16,91%</t>
+          <t>16,34%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>41,71%</t>
+          <t>13,76%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
+          <t>41,72%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>42,71%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
           <t>27,49%</t>
         </is>
       </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>23,65%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>19,39%</t>
-        </is>
-      </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>22,69%</t>
+          <t>23,0%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
+          <t>19,12%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>22,11%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>23,13%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
           <t>33,72%</t>
         </is>
       </c>
-      <c r="M14" s="2" t="inlineStr">
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>35,12%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
         <is>
           <t>22,68%</t>
         </is>
       </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>21,47%</t>
-        </is>
-      </c>
-      <c r="O14" s="2" t="inlineStr">
-        <is>
-          <t>18,12%</t>
-        </is>
-      </c>
-      <c r="P14" s="2" t="inlineStr">
-        <is>
-          <t>19,93%</t>
-        </is>
-      </c>
-      <c r="Q14" s="2" t="inlineStr">
-        <is>
-          <t>37,54%</t>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>20,56%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>17,96%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>19,38%</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>18,47%</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
+          <t>37,55%</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
+          <t>38,81%</t>
         </is>
       </c>
     </row>
@@ -1613,77 +1992,107 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>12,4; 22,74</t>
+          <t>12,7; 23,28</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>12,91; 27,47</t>
+          <t>12,78; 24,61</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>11,03; 23,01</t>
+          <t>11,71; 23,69</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>11,51; 24,39</t>
+          <t>11,2; 23,15</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>33,68; 50,05</t>
+          <t>8,12; 21,96</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>21,86; 34,27</t>
+          <t>33,42; 51,17</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>17,04; 31,29</t>
+          <t>33,65; 51,98</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>14,01; 25,38</t>
+          <t>21,64; 34,18</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>17,09; 29,41</t>
+          <t>16,4; 30,1</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>24,02; 43,86</t>
+          <t>13,67; 24,56</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>18,7; 27,09</t>
+          <t>16,46; 28,17</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>17,05; 26,84</t>
+          <t>14,9; 33,51</t>
         </is>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>14,12; 22,36</t>
+          <t>24,46; 44,09</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>16,23; 25,09</t>
+          <t>26,24; 44,57</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>31,0; 44,86</t>
+          <t>18,67; 26,89</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>16,24; 25,24</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>14,39; 22,49</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>15,49; 23,93</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>13,51; 24,72</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="inlineStr">
+        <is>
+          <t>31,34; 44,95</t>
+        </is>
+      </c>
+      <c r="W15" s="2" t="inlineStr">
+        <is>
+          <t>32,84; 45,89</t>
         </is>
       </c>
     </row>
@@ -1705,72 +2114,102 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>24,06%</t>
+          <t>23,77%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>21,45%</t>
+          <t>21,52%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>23,53%</t>
+          <t>23,59%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
+          <t>20,86%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>39,3%</t>
         </is>
       </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>25,54%</t>
-        </is>
-      </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>24,74%</t>
+          <t>41,41%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>25,85%</t>
+          <t>25,55%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>25,01%</t>
+          <t>24,46%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
+          <t>25,77%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>24,87%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>24,87%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
           <t>39,96%</t>
         </is>
       </c>
-      <c r="M16" s="2" t="inlineStr">
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>43,46%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
         <is>
           <t>24,33%</t>
         </is>
       </c>
-      <c r="N16" s="2" t="inlineStr">
-        <is>
-          <t>24,39%</t>
-        </is>
-      </c>
-      <c r="O16" s="2" t="inlineStr">
-        <is>
-          <t>23,62%</t>
-        </is>
-      </c>
-      <c r="P16" s="2" t="inlineStr">
-        <is>
-          <t>24,25%</t>
-        </is>
-      </c>
-      <c r="Q16" s="2" t="inlineStr">
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>24,1%</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>23,61%</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>24,21%</t>
+        </is>
+      </c>
+      <c r="U16" s="2" t="inlineStr">
+        <is>
+          <t>22,74%</t>
+        </is>
+      </c>
+      <c r="V16" s="2" t="inlineStr">
         <is>
           <t>39,62%</t>
+        </is>
+      </c>
+      <c r="W16" s="2" t="inlineStr">
+        <is>
+          <t>42,36%</t>
         </is>
       </c>
     </row>
@@ -1783,94 +2222,2774 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>20,7; 26,33</t>
+          <t>20,62; 26,17</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>21,0; 27,55</t>
+          <t>20,96; 27,44</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>18,87; 23,94</t>
+          <t>19,06; 24,88</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>20,7; 27,07</t>
+          <t>20,89; 27,03</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>35,62; 42,77</t>
+          <t>18,06; 24,02</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>23,26; 28,17</t>
+          <t>36,06; 43,22</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>22,16; 27,34</t>
+          <t>38,05; 45,3</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>23,29; 28,04</t>
+          <t>23,3; 27,99</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>22,8; 27,38</t>
+          <t>21,97; 27,01</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>36,51; 43,93</t>
+          <t>23,34; 28,21</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>22,49; 26,17</t>
+          <t>22,7; 27,34</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>22,43; 26,69</t>
+          <t>22,11; 27,74</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>21,8; 25,47</t>
+          <t>36,16; 43,44</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>22,36; 26,34</t>
+          <t>40,03; 47,14</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>37,29; 42,11</t>
+          <t>22,68; 26,34</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>22,02; 26,17</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>21,9; 25,56</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>22,47; 26,4</t>
+        </is>
+      </c>
+      <c r="U17" s="2" t="inlineStr">
+        <is>
+          <t>20,8; 25,06</t>
+        </is>
+      </c>
+      <c r="V17" s="2" t="inlineStr">
+        <is>
+          <t>36,99; 42,13</t>
+        </is>
+      </c>
+      <c r="W17" s="2" t="inlineStr">
+        <is>
+          <t>39,88; 44,91</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="Q1:W1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="C1:I1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:W25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que reside en vivienda cuya superficie es menor o igual que 75m2 (tasa de respuesta: 93,2%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>84342</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>90747</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>80413</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>90989</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>81770</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>9330</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>13133</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>86659</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>69738</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>127403</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>96276</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>93817</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>9606</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>9785</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>171001</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>160485</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>207817</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>187265</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>175588</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>18935</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>22918</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>59086; 114371</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>60843; 122661</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>51456; 114413</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>58679; 129149</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>52150; 117646</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>6535; 12181</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>9557; 16444</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>62031; 113011</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>47138; 98258</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>96091; 158487</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>71789; 125022</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>67820; 124230</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>6982; 12211</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>7565; 12259</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>135191; 206928</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>121414; 201632</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>165619; 254149</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>144690; 236761</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>135290; 223255</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>15104; 23145</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>18441; 27060</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>104.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>113.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>113.0</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>83.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>183100</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>177174</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>171681</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>199811</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>91859</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>15284</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>15472</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>135785</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>157359</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>145272</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>139582</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>101777</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>12722</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>14759</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>318885</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>334533</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>316953</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>339392</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>193636</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>28006</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>30230</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>139713; 236425</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>130826; 249627</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>127336; 223997</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>147974; 268099</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>57734; 139416</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>11190; 19386</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>10865; 20326</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>107555; 171363</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>124477; 197873</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>117308; 176696</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>113491; 171451</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>74229; 135242</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>9804; 15687</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>11908; 17797</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>261344; 379893</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>271023; 413219</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>270885; 389607</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>283549; 416937</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>142824; 243029</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>23106; 33552</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>25036; 35636</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>83.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>122.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>101.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>135.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>140.0</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>106.0</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>143.0</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>149.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>139485</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>141348</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>129382</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>139354</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>131375</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>19241</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>23160</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>150081</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>149378</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>158813</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>154027</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>151263</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>16439</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>20636</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>289566</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>290726</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>288195</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>293381</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>282638</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>35680</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>43796</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>104129; 185314</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>99115; 199942</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>97382; 165527</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>105418; 186978</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>99796; 168836</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>15724; 23096</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>19283; 27120</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>122027; 181600</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>119044; 184975</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>132387; 194799</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>127357; 183562</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>116278; 185771</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>13499; 19652</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>17420; 23882</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>243160; 344180</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>238473; 356140</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>244331; 337095</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>246876; 351857</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>233157; 332053</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>31134; 41082</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>38215; 48925</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>97.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>131.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>119.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>133.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>140.0</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>157.0</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>169.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>143274</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>156428</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>127336</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>144941</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>156134</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>20104</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>20329</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>132839</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>132860</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>139557</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>129933</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>119403</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>20656</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>21909</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>276113</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>289288</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>266893</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>274874</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>275537</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
+          <t>40760</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
+          <t>42239</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>113619; 177737</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>124581; 191365</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>101449; 160302</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>115540; 180364</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>121193; 211664</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>16234; 24275</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>16644; 24303</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>107052; 164138</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>104090; 168315</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>115129; 170091</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>103728; 158109</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>93547; 149562</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>17772; 23956</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>18929; 25141</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>238013; 321671</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>242537; 337085</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>227097; 308013</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>235637; 319805</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>231209; 337226</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="inlineStr">
+        <is>
+          <t>36161; 45561</t>
+        </is>
+      </c>
+      <c r="W15" s="2" t="inlineStr">
+        <is>
+          <t>37409; 47334</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="U16" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="V16" s="2" t="inlineStr">
+        <is>
+          <t>136.0</t>
+        </is>
+      </c>
+      <c r="W16" s="2" t="inlineStr">
+        <is>
+          <t>120.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>90877</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>101427</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>83450</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>86613</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>105499</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>16408</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>15527</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>106788</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>106565</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>104887</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>108158</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>83363</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>16664</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>13138</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>197665</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>207993</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>188337</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>194771</t>
+        </is>
+      </c>
+      <c r="U17" s="2" t="inlineStr">
+        <is>
+          <t>188862</t>
+        </is>
+      </c>
+      <c r="V17" s="2" t="inlineStr">
+        <is>
+          <t>33072</t>
+        </is>
+      </c>
+      <c r="W17" s="2" t="inlineStr">
+        <is>
+          <t>28665</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>67257; 123597</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>75703; 140377</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>62439; 117485</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>63051; 121936</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>76243; 138386</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>12879; 19679</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>12526; 18468</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>82738; 133973</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>78188; 137464</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>81360; 130779</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>85528; 136072</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>59635; 117299</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>14033; 19643</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>10292; 15799</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>163533; 236273</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>173530; 255343</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>157006; 232113</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>160311; 243189</t>
+        </is>
+      </c>
+      <c r="U18" s="2" t="inlineStr">
+        <is>
+          <t>153254; 234111</t>
+        </is>
+      </c>
+      <c r="V18" s="2" t="inlineStr">
+        <is>
+          <t>28967; 37574</t>
+        </is>
+      </c>
+      <c r="W18" s="2" t="inlineStr">
+        <is>
+          <t>24734; 32613</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>94.0</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="U19" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="V19" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="W19" s="2" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>90188</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>90254</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>76269</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>76207</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>67583</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>17875</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>17644</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>142194</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>121864</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>96883</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>115160</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>114855</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>15734</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>15266</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>232383</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>212117</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>173152</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>191367</t>
+        </is>
+      </c>
+      <c r="U20" s="2" t="inlineStr">
+        <is>
+          <t>182438</t>
+        </is>
+      </c>
+      <c r="V20" s="2" t="inlineStr">
+        <is>
+          <t>33609</t>
+        </is>
+      </c>
+      <c r="W20" s="2" t="inlineStr">
+        <is>
+          <t>32910</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>64433; 118133</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>64166; 123569</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>53518; 108328</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>52232; 107968</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>39849; 107813</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>14322; 21926</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>13904; 21475</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>111940; 176750</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>86899; 159491</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>69234; 124413</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>85725; 146711</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>73973; 166393</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>11412; 20576</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>11409; 19374</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>191312; 275474</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>167548; 260471</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>138670; 216749</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>152948; 236235</t>
+        </is>
+      </c>
+      <c r="U21" s="2" t="inlineStr">
+        <is>
+          <t>133452; 244141</t>
+        </is>
+      </c>
+      <c r="V21" s="2" t="inlineStr">
+        <is>
+          <t>28050; 40237</t>
+        </is>
+      </c>
+      <c r="W21" s="2" t="inlineStr">
+        <is>
+          <t>27845; 38906</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>276.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>242.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>258.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>267.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>197.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>309.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>319.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>328.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>270.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>351.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>352.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>234.0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>349.0</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>358.0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>604.0</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>512.0</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>609.0</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>619.0</t>
+        </is>
+      </c>
+      <c r="U22" s="2" t="inlineStr">
+        <is>
+          <t>431.0</t>
+        </is>
+      </c>
+      <c r="V22" s="2" t="inlineStr">
+        <is>
+          <t>658.0</t>
+        </is>
+      </c>
+      <c r="W22" s="2" t="inlineStr">
+        <is>
+          <t>677.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>731266</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>757378</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>668532</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>737916</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>634220</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>98243</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>105266</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>754346</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>737764</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>772815</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>743135</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>664479</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>91818</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>95492</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>1485612</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>1495142</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>1441347</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>1481051</t>
+        </is>
+      </c>
+      <c r="U23" s="2" t="inlineStr">
+        <is>
+          <t>1298699</t>
+        </is>
+      </c>
+      <c r="V23" s="2" t="inlineStr">
+        <is>
+          <t>190061</t>
+        </is>
+      </c>
+      <c r="W23" s="2" t="inlineStr">
+        <is>
+          <t>200758</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>650185; 825219</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>667909; 874507</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>592157; 772989</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>653458; 845431</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>549066; 730085</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>90128; 108047</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>96738; 115164</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>688076; 826629</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>662777; 814638</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>700030; 846115</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>678439; 816950</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>590808; 741236</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>83079; 99803</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>87945; 103580</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>1384556; 1608054</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>1365922; 1623278</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>1337002; 1560537</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>1374058; 1614866</t>
+        </is>
+      </c>
+      <c r="U24" s="2" t="inlineStr">
+        <is>
+          <t>1188095; 1431460</t>
+        </is>
+      </c>
+      <c r="V24" s="2" t="inlineStr">
+        <is>
+          <t>177458; 202111</t>
+        </is>
+      </c>
+      <c r="W24" s="2" t="inlineStr">
+        <is>
+          <t>188997; 212848</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="J1:P1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>